--- a/Code/Results/Cases/Case_2_105/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_105/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.376106232322115</v>
+        <v>2.421508577308259</v>
       </c>
       <c r="C2">
-        <v>1.038357451350578</v>
+        <v>0.3410227133981607</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01177553644423679</v>
+        <v>0.03259823985588861</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.0007935921344687501</v>
+        <v>0.002523432179149924</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.182820031880027</v>
+        <v>1.530761831882074</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3972751721474879</v>
+        <v>0.2966162175013238</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8861512107856058</v>
+        <v>1.728444377538857</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.792556450014843</v>
+        <v>2.283797213877733</v>
       </c>
       <c r="C3">
-        <v>0.8908098014292136</v>
+        <v>0.3026433378636568</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.01163981348383691</v>
+        <v>0.03264722439960344</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.0008036630838859765</v>
+        <v>0.002529511640271156</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.101797153689816</v>
+        <v>1.522049614036291</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3483892885659543</v>
+        <v>0.2861052814412375</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9401951811597584</v>
+        <v>1.748483226842474</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.441721166906461</v>
+        <v>2.200732835608108</v>
       </c>
       <c r="C4">
-        <v>0.8022122732886032</v>
+        <v>0.279224936085825</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01156556373359496</v>
+        <v>0.03268112333721596</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.000809987361857682</v>
+        <v>0.002533437071178822</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.055516742882617</v>
+        <v>1.517673056291159</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.319139139075844</v>
+        <v>0.2798419397186649</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9753277231713184</v>
+        <v>1.761468412562685</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.300373952873883</v>
+        <v>2.167255407999221</v>
       </c>
       <c r="C5">
-        <v>0.7665335834625182</v>
+        <v>0.2697173617881958</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0115373587883244</v>
+        <v>0.03269589889003588</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008126024629713872</v>
+        <v>0.002535085328995271</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.037443878908149</v>
+        <v>1.51613274102418</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3073885291946965</v>
+        <v>0.2773371735172816</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9901070317440386</v>
+        <v>1.766930694600397</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.276994232983782</v>
+        <v>2.161718888988219</v>
       </c>
       <c r="C6">
-        <v>0.7606327669783752</v>
+        <v>0.268140750490943</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01153279314250577</v>
+        <v>0.03269841044109612</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008130390576177348</v>
+        <v>0.002535361962317058</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.03448807613789</v>
+        <v>1.515891617605348</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3054469143549881</v>
+        <v>0.276924125485607</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9925883026827407</v>
+        <v>1.767847995829911</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.43980866642579</v>
+        <v>2.200279844996942</v>
       </c>
       <c r="C7">
-        <v>0.8017294708878921</v>
+        <v>0.2790965710823343</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01156517532563672</v>
+        <v>0.03268131871206448</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938368969</v>
       </c>
       <c r="G7">
-        <v>0.0008100224734365936</v>
+        <v>0.002533459102974533</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.055269926965025</v>
+        <v>1.517651300375896</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3189800112012193</v>
+        <v>0.2798079672212879</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9755252039386448</v>
+        <v>1.761541388368016</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.173185843373403</v>
+        <v>2.373714421932107</v>
       </c>
       <c r="C8">
-        <v>0.987019743347588</v>
+        <v>0.3277582781830688</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.01172670368312922</v>
+        <v>0.03261433658489588</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.0007970370034336531</v>
+        <v>0.002525488507106519</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.154109523089005</v>
+        <v>1.527555077468094</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3802454209424582</v>
+        <v>0.292952348904322</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9043634480438172</v>
+        <v>1.735212022799978</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.683708519385789</v>
+        <v>2.725803725058029</v>
       </c>
       <c r="C9">
-        <v>1.370160121396111</v>
+        <v>0.4244101770302677</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.01212798020383277</v>
+        <v>0.03251330666946672</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>0.5661985755042025</v>
       </c>
       <c r="G9">
-        <v>0.0007725599154332694</v>
+        <v>0.002511378390623326</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.37980050878997</v>
+        <v>1.554763596097814</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.507665635137414</v>
+        <v>0.3202540559151714</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7816914636520949</v>
+        <v>1.689011640221253</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.858741184251642</v>
+        <v>2.992036198106291</v>
       </c>
       <c r="C10">
-        <v>1.670085641048672</v>
+        <v>0.4962620210480964</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.01249548694195668</v>
+        <v>0.03245757029810314</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007549723989734858</v>
+        <v>0.002501927021893704</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.572031143701338</v>
+        <v>1.579601132760402</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6076452126317093</v>
+        <v>0.341265843412458</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7041165811754908</v>
+        <v>1.658414317066153</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.413145470512802</v>
+        <v>3.114848387848895</v>
       </c>
       <c r="C11">
-        <v>1.812258191030253</v>
+        <v>0.5291530557911983</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.01268459665609778</v>
+        <v>0.03243623338993462</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007470022396662138</v>
+        <v>0.002497823659394285</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.66709906114076</v>
+        <v>1.591975194989061</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6550260968683261</v>
+        <v>0.351036897366356</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6721649367302405</v>
+        <v>1.645229047336919</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.62651129404918</v>
+        <v>3.161602930466415</v>
       </c>
       <c r="C12">
-        <v>1.867094178849754</v>
+        <v>0.5416391420761784</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.01276001722417974</v>
+        <v>0.03242873187049811</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007439830391406996</v>
+        <v>0.002496297835712113</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.704383904068024</v>
+        <v>1.596817331255806</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6732926411853555</v>
+        <v>0.3547679119350136</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6606079761846289</v>
+        <v>1.640342310560897</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.580396754831497</v>
+        <v>3.151522405849505</v>
       </c>
       <c r="C13">
-        <v>1.855236771598925</v>
+        <v>0.5389486394908545</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.01274359264123515</v>
+        <v>0.03243032172674543</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007446334227456664</v>
+        <v>0.002496625205216506</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.696293455387959</v>
+        <v>1.595767509373275</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6693432764851508</v>
+        <v>0.3539629900692205</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6630717369131816</v>
+        <v>1.641390019720951</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.430626973547817</v>
+        <v>3.118689916745723</v>
       </c>
       <c r="C14">
-        <v>1.816748469009724</v>
+        <v>0.5301796646521666</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.01269072094178636</v>
+        <v>0.0324356046417964</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007467539044067485</v>
+        <v>0.002497697568153323</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.67013956428417</v>
+        <v>1.592370417099914</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6565220702950398</v>
+        <v>0.3513432283253621</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.671202870641963</v>
+        <v>1.644824879055413</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.339353143283347</v>
+        <v>3.098611502498045</v>
       </c>
       <c r="C15">
-        <v>1.793308955906753</v>
+        <v>0.5248124903463349</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.01265885344330853</v>
+        <v>0.03243891591028714</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007480524432045588</v>
+        <v>0.002498358066843592</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.654293003602078</v>
+        <v>1.590310012402512</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.648712627899755</v>
+        <v>0.3497425867763013</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6762561049486209</v>
+        <v>1.646942687384708</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.822955854173301</v>
+        <v>2.984044674942197</v>
       </c>
       <c r="C16">
-        <v>1.660923906297626</v>
+        <v>0.494116768328297</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0124836222944904</v>
+        <v>0.03245904560812662</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.000755493434723134</v>
+        <v>0.002502199118077666</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.565987018839181</v>
+        <v>1.578814243261505</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6045911812925056</v>
+        <v>0.3406315911155673</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7062769602660595</v>
+        <v>1.659290831041375</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.511628260483633</v>
+        <v>2.914199967029219</v>
       </c>
       <c r="C17">
-        <v>1.581293319026599</v>
+        <v>0.4753395340571842</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.01238216373019396</v>
+        <v>0.03247242393957972</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>0.000760062439551349</v>
+        <v>0.002504605586357159</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.513890878467308</v>
+        <v>1.572038593394851</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5780445929967755</v>
+        <v>0.3350970070643342</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7255898525650935</v>
+        <v>1.667054438708597</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.334392754634735</v>
+        <v>2.87418709427476</v>
       </c>
       <c r="C18">
-        <v>1.536019734042213</v>
+        <v>0.46455859851892</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.01232582491634115</v>
+        <v>0.03248049694043398</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007626936546439886</v>
+        <v>0.002506008192604066</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.484630931077405</v>
+        <v>1.568242530939273</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5629509909532828</v>
+        <v>0.3319336586790911</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7370079593306826</v>
+        <v>1.671588865529351</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.274682704768793</v>
+        <v>2.860666789555978</v>
       </c>
       <c r="C19">
-        <v>1.520776710259156</v>
+        <v>0.4609116185696962</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.01230707832423983</v>
+        <v>0.0324832952512546</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>0.0007635852481691208</v>
+        <v>0.002506486268134545</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.474839739059618</v>
+        <v>1.566974563713728</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5578692334236166</v>
+        <v>0.3308660275759507</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7409254134253302</v>
+        <v>1.673135973651092</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.544576210777279</v>
+        <v>2.921618475310538</v>
       </c>
       <c r="C20">
-        <v>1.589714339256204</v>
+        <v>0.4773364017517565</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.01239275106485893</v>
+        <v>0.0324709606540321</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.6429339538360921</v>
       </c>
       <c r="G20">
-        <v>0.0007595757622389051</v>
+        <v>0.002504347503546138</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.519362433169093</v>
+        <v>1.572749395839239</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5808520353453162</v>
+        <v>0.3356841008000657</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7235014754529914</v>
+        <v>1.666220842293626</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.474520039781794</v>
+        <v>3.128326849163955</v>
       </c>
       <c r="C21">
-        <v>1.828024786053106</v>
+        <v>0.5327544730786258</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.01270614132111958</v>
+        <v>0.03243403722156191</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>0.000746131144758524</v>
+        <v>0.002497381829613459</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.677785065230381</v>
+        <v>1.5933639684187</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6602787133649457</v>
+        <v>0.352111873678794</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6687992858445355</v>
+        <v>1.643813088297911</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.102592116414826</v>
+        <v>3.264871306692612</v>
       </c>
       <c r="C22">
-        <v>1.989697477964285</v>
+        <v>0.5691545651745287</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.01293357792063365</v>
+        <v>0.03241327676887762</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007373348119172815</v>
+        <v>0.002492992664010947</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.788923834653431</v>
+        <v>1.607748911489978</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7141099874066725</v>
+        <v>0.3630288134275048</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6362472982435108</v>
+        <v>1.629787922278268</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.765307246202326</v>
+        <v>3.191861225063633</v>
       </c>
       <c r="C23">
-        <v>1.902802049522109</v>
+        <v>0.5497100883060853</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.01280986453555566</v>
+        <v>0.03242404834099322</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307916134</v>
       </c>
       <c r="G23">
-        <v>0.0007420325033127284</v>
+        <v>0.002495320358134937</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.728840386342611</v>
+        <v>1.5999873630698</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6851841598097366</v>
+        <v>0.3571856110162344</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6533045776478374</v>
+        <v>1.637216473928831</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.529675030372857</v>
+        <v>2.918264126368229</v>
       </c>
       <c r="C24">
-        <v>1.585905629193917</v>
+        <v>0.4764335732895688</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0123879583762716</v>
+        <v>0.03247162101673751</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.000759795774769505</v>
+        <v>0.00250446412326645</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.516886605382396</v>
+        <v>1.572427732733786</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5795822699309952</v>
+        <v>0.335418617944768</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.724444654596347</v>
+        <v>1.66659749006147</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.265319718596174</v>
+        <v>2.629246040536316</v>
       </c>
       <c r="C25">
-        <v>1.263789882504966</v>
+        <v>0.3981223416926696</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.01200843142082597</v>
+        <v>0.03253739165902214</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347308</v>
       </c>
       <c r="G25">
-        <v>0.000779095519826959</v>
+        <v>0.002515033985441636</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.314671019384619</v>
+        <v>1.546559035530635</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4722327617310782</v>
+        <v>0.3127025252126572</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8128568558797582</v>
+        <v>1.700925028598874</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_105/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_105/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.421508577308259</v>
+        <v>4.376106232322059</v>
       </c>
       <c r="C2">
-        <v>0.3410227133981607</v>
+        <v>1.03835745135035</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03259823985588861</v>
+        <v>0.01177553644426155</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002523432179149924</v>
+        <v>0.0007935921346354791</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.530761831882074</v>
+        <v>1.182820031880013</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2966162175013238</v>
+        <v>0.3972751721474737</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.728444377538857</v>
+        <v>0.8861512107855987</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.283797213877733</v>
+        <v>3.79255645001507</v>
       </c>
       <c r="C3">
-        <v>0.3026433378636568</v>
+        <v>0.8908098014290147</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03264722439960344</v>
+        <v>0.01163981348383447</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002529511640271156</v>
+        <v>0.0008036630840012475</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.522049614036291</v>
+        <v>1.10179715368983</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2861052814412375</v>
+        <v>0.348389288565869</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.748483226842474</v>
+        <v>0.9401951811597513</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.200732835608108</v>
+        <v>3.441721166906518</v>
       </c>
       <c r="C4">
-        <v>0.279224936085825</v>
+        <v>0.8022122732889159</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03268112333721596</v>
+        <v>0.01156556373355033</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002533437071178822</v>
+        <v>0.0008099873618539732</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.517673056291159</v>
+        <v>1.05551674288261</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2798419397186649</v>
+        <v>0.3191391390758298</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.761468412562685</v>
+        <v>0.975327723171354</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.167255407999221</v>
+        <v>3.30037395287394</v>
       </c>
       <c r="C5">
-        <v>0.2697173617881958</v>
+        <v>0.7665335834623761</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03269589889003588</v>
+        <v>0.011537358788271</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002535085328995271</v>
+        <v>0.0008126024628931638</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.51613274102418</v>
+        <v>1.037443878908157</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2773371735172816</v>
+        <v>0.3073885291946965</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.766930694600397</v>
+        <v>0.9901070317440812</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.161718888988219</v>
+        <v>3.276994232983839</v>
       </c>
       <c r="C6">
-        <v>0.268140750490943</v>
+        <v>0.7606327669781479</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03269841044109612</v>
+        <v>0.0115327931425051</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002535361962317058</v>
+        <v>0.0008130390575389697</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.515891617605348</v>
+        <v>1.03448807613789</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.276924125485607</v>
+        <v>0.3054469143549312</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.767847995829911</v>
+        <v>0.9925883026827762</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.200279844996942</v>
+        <v>3.43980866642579</v>
       </c>
       <c r="C7">
-        <v>0.2790965710823343</v>
+        <v>0.8017294708876364</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03268131871206448</v>
+        <v>0.01156517532565893</v>
       </c>
       <c r="F7">
-        <v>0.3529483938368969</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002533459102974533</v>
+        <v>0.0008100224733184572</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.517651300375896</v>
+        <v>1.055269926965018</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2798079672212879</v>
+        <v>0.3189800112012051</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.761541388368016</v>
+        <v>0.9755252039386164</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.373714421932107</v>
+        <v>4.173185843373403</v>
       </c>
       <c r="C8">
-        <v>0.3277582781830688</v>
+        <v>0.9870197433476164</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03261433658489588</v>
+        <v>0.01172670368308582</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002525488507106519</v>
+        <v>0.0007970370034907846</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.527555077468094</v>
+        <v>1.154109523089005</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.292952348904322</v>
+        <v>0.380245420942444</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.735212022799978</v>
+        <v>0.904363448043874</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.725803725058029</v>
+        <v>5.683708519386073</v>
       </c>
       <c r="C9">
-        <v>0.4244101770302677</v>
+        <v>1.370160121396339</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03251330666946672</v>
+        <v>0.01212798020383521</v>
       </c>
       <c r="F9">
-        <v>0.5661985755042025</v>
+        <v>1.895061171845327</v>
       </c>
       <c r="G9">
-        <v>0.002511378390623326</v>
+        <v>0.0007725599154340124</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.554763596097814</v>
+        <v>1.37980050878997</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3202540559151714</v>
+        <v>0.5076656351373572</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.689011640221253</v>
+        <v>0.7816914636521517</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.992036198106291</v>
+        <v>6.858741184251699</v>
       </c>
       <c r="C10">
-        <v>0.4962620210480964</v>
+        <v>1.670085641048445</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03245757029810314</v>
+        <v>0.01249548694194558</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.002501927021893704</v>
+        <v>0.0007549723989712142</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.579601132760402</v>
+        <v>1.572031143701352</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.341265843412458</v>
+        <v>0.607645212631752</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.658414317066153</v>
+        <v>0.7041165811754908</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.114848387848895</v>
+        <v>7.413145470512859</v>
       </c>
       <c r="C11">
-        <v>0.5291530557911983</v>
+        <v>1.812258191030026</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03243623338993462</v>
+        <v>0.01268459665615773</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639217</v>
       </c>
       <c r="G11">
-        <v>0.002497823659394285</v>
+        <v>0.000747002239732814</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.591975194989061</v>
+        <v>1.66709906114076</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.351036897366356</v>
+        <v>0.6550260968683119</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.645229047336919</v>
+        <v>0.6721649367302263</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.161602930466415</v>
+        <v>7.626511294049067</v>
       </c>
       <c r="C12">
-        <v>0.5416391420761784</v>
+        <v>1.867094178849925</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03242873187049811</v>
+        <v>0.01276001722420927</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.002496297835712113</v>
+        <v>0.0007439830391945568</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.596817331255806</v>
+        <v>1.704383904068052</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3547679119350136</v>
+        <v>0.6732926411852702</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.640342310560897</v>
+        <v>0.6606079761846146</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.151522405849505</v>
+        <v>7.58039675483144</v>
       </c>
       <c r="C13">
-        <v>0.5389486394908545</v>
+        <v>1.855236771598641</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03243032172674543</v>
+        <v>0.01274359264126823</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.002496625205216506</v>
+        <v>0.0007446334226924654</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.595767509373275</v>
+        <v>1.696293455387959</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3539629900692205</v>
+        <v>0.6693432764851934</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.641390019720951</v>
+        <v>0.6630717369133237</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.118689916745723</v>
+        <v>7.430626973547817</v>
       </c>
       <c r="C14">
-        <v>0.5301796646521666</v>
+        <v>1.816748469009951</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0324356046417964</v>
+        <v>0.01269072094181989</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002497697568153323</v>
+        <v>0.000746753904227182</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.592370417099914</v>
+        <v>1.670139564284156</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3513432283253621</v>
+        <v>0.6565220702947983</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.644824879055413</v>
+        <v>0.6712028706418991</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.098611502498045</v>
+        <v>7.33935314328329</v>
       </c>
       <c r="C15">
-        <v>0.5248124903463349</v>
+        <v>1.793308955906184</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03243891591028714</v>
+        <v>0.01265885344336226</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.002498358066843592</v>
+        <v>0.0007480524432683211</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.590310012402512</v>
+        <v>1.654293003602092</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3497425867763013</v>
+        <v>0.6487126278997692</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.646942687384708</v>
+        <v>0.6762561049486422</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.984044674942197</v>
+        <v>6.822955854173358</v>
       </c>
       <c r="C16">
-        <v>0.494116768328297</v>
+        <v>1.66092390629791</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03245904560812662</v>
+        <v>0.01248362229448752</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002502199118077666</v>
+        <v>0.0007554934347218745</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.578814243261505</v>
+        <v>1.565987018839195</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3406315911155673</v>
+        <v>0.6045911812925624</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.659290831041375</v>
+        <v>0.7062769602660524</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.914199967029219</v>
+        <v>6.51162826048369</v>
       </c>
       <c r="C17">
-        <v>0.4753395340571842</v>
+        <v>1.581293319026429</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03247242393957972</v>
+        <v>0.01238216373019529</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.002504605586357159</v>
+        <v>0.000760062439543985</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.572038593394851</v>
+        <v>1.513890878467336</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3350970070643342</v>
+        <v>0.578044592996676</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.667054438708597</v>
+        <v>0.7255898525650935</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.87418709427476</v>
+        <v>6.334392754634393</v>
       </c>
       <c r="C18">
-        <v>0.46455859851892</v>
+        <v>1.536019734041759</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03248049694043398</v>
+        <v>0.01232582491633605</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.002506008192604066</v>
+        <v>0.000762693654634807</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.568242530939273</v>
+        <v>1.484630931077419</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3319336586790911</v>
+        <v>0.5629509909532544</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.671588865529351</v>
+        <v>0.7370079593306755</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.860666789555978</v>
+        <v>6.274682704768793</v>
       </c>
       <c r="C19">
-        <v>0.4609116185696962</v>
+        <v>1.520776710258644</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0324832952512546</v>
+        <v>0.01230707832426425</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.002506486268134545</v>
+        <v>0.0007635852481680106</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.566974563713728</v>
+        <v>1.474839739059604</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3308660275759507</v>
+        <v>0.5578692334235598</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.673135973651092</v>
+        <v>0.740925413425316</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.921618475310538</v>
+        <v>6.544576210777336</v>
       </c>
       <c r="C20">
-        <v>0.4773364017517565</v>
+        <v>1.589714339256204</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0324709606540321</v>
+        <v>0.01239275106490934</v>
       </c>
       <c r="F20">
-        <v>0.6429339538360921</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002504347503546138</v>
+        <v>0.0007595757621162554</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.572749395839239</v>
+        <v>1.519362433169107</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3356841008000657</v>
+        <v>0.580852035345373</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.666220842293626</v>
+        <v>0.7235014754529914</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.128326849163955</v>
+        <v>7.47452003978168</v>
       </c>
       <c r="C21">
-        <v>0.5327544730786258</v>
+        <v>1.828024786053618</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03243403722156191</v>
+        <v>0.01270614132108849</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002497381829613459</v>
+        <v>0.000746131144824306</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.5933639684187</v>
+        <v>1.677785065230381</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.352111873678794</v>
+        <v>0.6602787133649883</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.643813088297911</v>
+        <v>0.6687992858445853</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.264871306692612</v>
+        <v>8.102592116414883</v>
       </c>
       <c r="C22">
-        <v>0.5691545651745287</v>
+        <v>1.989697477964285</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03241327676887762</v>
+        <v>0.01293357792060057</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031955</v>
       </c>
       <c r="G22">
-        <v>0.002492992664010947</v>
+        <v>0.0007373348118478535</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.607748911489978</v>
+        <v>1.788923834653446</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3630288134275048</v>
+        <v>0.7141099874066867</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.629787922278268</v>
+        <v>0.6362472982435179</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.191861225063633</v>
+        <v>7.765307246202326</v>
       </c>
       <c r="C23">
-        <v>0.5497100883060853</v>
+        <v>1.902802049522109</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03242404834099322</v>
+        <v>0.01280986453554878</v>
       </c>
       <c r="F23">
-        <v>0.7472568307916134</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.002495320358134937</v>
+        <v>0.000742032503365353</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.5999873630698</v>
+        <v>1.728840386342625</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3571856110162344</v>
+        <v>0.685184159809765</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.637216473928831</v>
+        <v>0.6533045776478303</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.918264126368229</v>
+        <v>6.529675030372914</v>
       </c>
       <c r="C24">
-        <v>0.4764335732895688</v>
+        <v>1.585905629194087</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03247162101673751</v>
+        <v>0.01238795837623474</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.00250446412326645</v>
+        <v>0.0007597957748319586</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.572427732733786</v>
+        <v>1.516886605382368</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.335418617944768</v>
+        <v>0.5795822699309809</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.66659749006147</v>
+        <v>0.7244446545963896</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.629246040536316</v>
+        <v>5.265319718596174</v>
       </c>
       <c r="C25">
-        <v>0.3981223416926696</v>
+        <v>1.263789882504682</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03253739165902214</v>
+        <v>0.01200843142079377</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347308</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
-        <v>0.002515033985441636</v>
+        <v>0.0007790955198256127</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.546559035530635</v>
+        <v>1.314671019384647</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3127025252126572</v>
+        <v>0.472232761731064</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.700925028598874</v>
+        <v>0.8128568558797511</v>
       </c>
       <c r="O25">
         <v>0</v>
